--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E669A-98F6-414C-B595-A573E99E7BA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22BD18-6528-4750-AF33-7C0A28D0143E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="error" sheetId="1" r:id="rId1"/>
     <sheet name="Database" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Information" sheetId="3" r:id="rId3"/>
     <sheet name="technology" sheetId="5" r:id="rId4"/>
     <sheet name="scope" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>read stopwords_file bug charmap</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>https://datatables.net/download/#bs/dt-1.10.16</t>
+  </si>
+  <si>
+    <t>toàn bộ database + model + txt… nằm trong thư mục Library</t>
+  </si>
+  <si>
+    <t>processed_paper_path</t>
+  </si>
+  <si>
+    <t>amcharts</t>
   </si>
 </sst>
 </file>
@@ -337,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -364,23 +373,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -390,22 +410,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,10 +778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3704EA6-8F9B-4FB1-B218-0136F76D7AB7}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -762,33 +789,20 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -798,29 +812,8 @@
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -830,12 +823,8 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -845,12 +834,8 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -861,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -872,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -883,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -894,14 +879,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -910,7 +895,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -919,7 +904,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -929,14 +914,79 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <sortState ref="B3:C10">
     <sortCondition ref="C3"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="2400" verticalDpi="2400" r:id="rId1"/>
@@ -945,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5678A485-6E25-4F34-92B1-66AFF5CF3057}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -969,6 +1019,11 @@
     <row r="3" spans="1:2">
       <c r="B3">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -981,145 +1036,149 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="17.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="17.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22BD18-6528-4750-AF33-7C0A28D0143E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30FEC72-617D-4EE8-9459-F1356EE83E9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="error" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>read stopwords_file bug charmap</t>
   </si>
@@ -142,9 +142,6 @@
     <t>sign</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>amcharts</t>
+  </si>
+  <si>
+    <t>PaperToKeyword</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,6 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +765,10 @@
         <v>43105</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -780,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3704EA6-8F9B-4FB1-B218-0136F76D7AB7}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,7 +882,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -891,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -900,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -909,25 +910,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="10"/>
     </row>
@@ -941,7 +951,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -953,16 +963,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1005,15 +1015,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1023,7 +1033,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401364AE-1BC6-424E-9E40-562D0F35A9F2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1056,10 +1066,10 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
@@ -1067,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4">
         <v>3.6</v>
@@ -1079,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1089,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1101,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1113,10 +1123,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1125,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
@@ -1139,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
@@ -1153,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
@@ -1167,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1206,69 +1216,69 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30FEC72-617D-4EE8-9459-F1356EE83E9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8FAFA-8AB3-4415-AA45-D7233D284B85}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="error" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>read stopwords_file bug charmap</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>PaperToKeyword</t>
+  </si>
+  <si>
+    <t>last_training_date &lt; last_processing_date</t>
+  </si>
+  <si>
+    <t>Xóa toàn bộ thư mục trong Model cũng như dữ liệu trong database để pre-processing từ đầu</t>
   </si>
 </sst>
 </file>
@@ -422,6 +428,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3704EA6-8F9B-4FB1-B218-0136F76D7AB7}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -797,11 +803,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -917,10 +923,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="3"/>
@@ -936,10 +942,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
@@ -950,13 +956,13 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
@@ -1005,35 +1011,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5678A485-6E25-4F34-92B1-66AFF5CF3057}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3">
+      <c r="C2">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
